--- a/examples/macros/artifact/data/FindNexialCommands.data.xlsx
+++ b/examples/macros/artifact/data/FindNexialCommands.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/macros/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBDA8D-C289-CC44-87BB-CD262772F7A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AD283-8761-1C4E-BD2E-66B28D208DE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>true</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>$(syspath|out|fullpath)/commands.json</t>
-  </si>
-  <si>
-    <t>nexial.inspectOnPause</t>
   </si>
 </sst>
 </file>
@@ -621,7 +618,7 @@
   <dimension ref="A1:AAA200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -765,14 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:703" ht="23" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
     <row r="16" spans="1:703" ht="23" customHeight="1"/>
     <row r="17" ht="23" customHeight="1"/>
     <row r="18" ht="23" customHeight="1"/>
